--- a/CDE_ID_detective_revamp/out/CRF_matching_report_SAMPLE_larger_sprint_2020-12-16_2024-11-12.xlsx
+++ b/CDE_ID_detective_revamp/out/CRF_matching_report_SAMPLE_larger_sprint_2020-12-16_2024-11-12.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_ID_detective_revamp\out\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\out\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F3AA38-9DA9-4FD6-9119-B20E3B448ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A957DECB-367C-4376-B905-5574FCF1E50C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63060" yWindow="7845" windowWidth="29025" windowHeight="17970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="6345" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$47</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
@@ -181,9 +184,6 @@
     <t>shortform_mcgill_pain_questionnaire_2_sfmpq2</t>
   </si>
   <si>
-    <t>Adolescent Sleep</t>
-  </si>
-  <si>
     <t>Bodily Threat Inventory (BTI)</t>
   </si>
   <si>
@@ -624,9 +624,6 @@
   </si>
   <si>
     <t>No CRF match</t>
-  </si>
-  <si>
-    <t>** No CRF match</t>
   </si>
   <si>
     <t>BPI Pain Severity and BPI Pain Interference</t>
@@ -730,11 +727,6 @@
 - Rationale: The SPRINT Child Self CRF description primarily relates to administrative details about the survey process and participant compensation, rather than specific variable descriptions or themes related to HEAL Core CRFs. There are no identifiable clinical or research measures, constructs, or domains mentioned that align with HEAL Core CRFs.</t>
   </si>
   <si>
-    <t>- HEAL Core CRF Match: No CRF match
-- Confidence level: Medium Confidence
-- Rationale: The "Fear of Pain Questionnaire" focuses on the psychological and behavioral responses to pain, such as fear, avoidance, and anxiety about pain. While these themes are relevant to pain assessment and management, they do not directly align with any specific HEAL Core CRF listed in the vector store, which may focus on different aspects of pain or related constructs like pain severity or interference. The descriptions provided emphasize the psychological impact and behavioral responses to pain, which are important but not explicitly covered by a specific HEAL Core CRF.</t>
-  </si>
-  <si>
     <t>- HEAL Core CRF Match: PROMIS Physical Function
 - Confidence level: Medium Confidence
 - Rationale: The Functional Disability Inventory (FDI) descriptions focus on physical activities and daily living tasks, which align with the themes of physical function. While there is a match in the general theme of assessing physical capabilities and limitations, the specific activities listed in the FDI are not directly named in the HEAL Core CRFs, thus leading to a medium confidence level.</t>
@@ -893,6 +885,17 @@
     <t>- HEAL Core CRF Match: BPI Pain Severity
 - Confidence level: Medium Confidence
 - Rationale: The provided descriptions focus on various types of pain sensations, which align with the assessment of pain severity typically captured in the Brief Pain Inventory (BPI). Although the CRF name "Short" does not provide much context, the descriptions suggest a focus on assessing different dimensions of pain, which is a primary function of the BPI Pain Severity CRF.</t>
+  </si>
+  <si>
+    <t>Adverse Childhood Experiences Questionnaire (ACEQ)</t>
+  </si>
+  <si>
+    <t>Adolescent Sleep Wake Scale (ASWS)</t>
+  </si>
+  <si>
+    <t>- HEAL Core CRF Match: No CRF match
+- Confidence level: Medium Confidence
+- Rationale: The "Fear of Pain Questionnaire" focuses on the psychological and behavioral responses to pain, such as fear, avoidance, and anxiety about pain. While these themes are relevant to pain assessment and management, G22, which may focus on different aspects of pain or related constructs like pain severity or interference. The descriptions provided emphasize the psychological impact and behavioral responses to pain, which are important but not explicitly covered by a specific HEAL Core CRF.</t>
   </si>
 </sst>
 </file>
@@ -916,12 +919,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -951,11 +960,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,22 +1279,26 @@
   <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.796875" customWidth="1"/>
-    <col min="2" max="2" width="18.796875" customWidth="1"/>
-    <col min="4" max="4" width="34" customWidth="1"/>
-    <col min="5" max="5" width="30.9296875" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.06640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1287,7 +1307,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1299,55 +1319,55 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>53</v>
+        <v>25</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>184</v>
+        <v>155</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G2" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>52</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="C4" t="s">
@@ -1356,425 +1376,425 @@
       <c r="D4" t="s">
         <v>140</v>
       </c>
-      <c r="E4" t="s">
-        <v>186</v>
+      <c r="E4" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" t="s">
-        <v>187</v>
+        <v>157</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="F5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>56</v>
+        <v>28</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
-      </c>
-      <c r="E6" t="s">
-        <v>185</v>
+        <v>158</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="F6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>188</v>
       </c>
       <c r="F7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" t="s">
-        <v>185</v>
+        <v>159</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="F8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G8" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>59</v>
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>242</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" t="s">
-        <v>185</v>
+        <v>138</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G9" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>185</v>
+        <v>141</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G10" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
-      </c>
-      <c r="E11" t="s">
-        <v>185</v>
+        <v>143</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" t="s">
-        <v>62</v>
+        <v>14</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E12" t="s">
-        <v>185</v>
+        <v>144</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G12" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" t="s">
-        <v>185</v>
+        <v>145</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G13" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" t="s">
-        <v>63</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" t="s">
-        <v>185</v>
+        <v>146</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G14" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" t="s">
-        <v>64</v>
+        <v>17</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" t="s">
-        <v>185</v>
+        <v>147</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G15" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" t="s">
-        <v>65</v>
+        <v>18</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E16" t="s">
-        <v>189</v>
+        <v>148</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G16" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>66</v>
+        <v>19</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>153</v>
-      </c>
-      <c r="E17" t="s">
-        <v>190</v>
+        <v>149</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" t="s">
-        <v>197</v>
-      </c>
-      <c r="G18" t="s">
-        <v>215</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D19" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" t="s">
-        <v>185</v>
+        <v>153</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>69</v>
+        <v>24</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
-      </c>
-      <c r="E20" t="s">
-        <v>191</v>
+        <v>154</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F20" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G20" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
-        <v>70</v>
+      <c r="B21" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E21" t="s">
-        <v>185</v>
+        <v>156</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
+        <v>30</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>158</v>
-      </c>
-      <c r="E22" t="s">
-        <v>192</v>
+        <v>160</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F22" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
         <v>219</v>
@@ -1782,22 +1802,22 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D23" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" t="s">
-        <v>192</v>
+        <v>161</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F23" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
         <v>220</v>
@@ -1805,22 +1825,22 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" t="s">
-        <v>66</v>
+        <v>32</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>160</v>
-      </c>
-      <c r="E24" t="s">
-        <v>190</v>
+        <v>162</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
         <v>221</v>
@@ -1828,19 +1848,19 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
+        <v>33</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" t="s">
-        <v>185</v>
+        <v>163</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F25" t="s">
         <v>196</v>
@@ -1851,400 +1871,400 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" t="s">
-        <v>185</v>
+        <v>165</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>75</v>
+        <v>36</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E27" t="s">
-        <v>185</v>
+        <v>166</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
-      </c>
-      <c r="E28" t="s">
-        <v>185</v>
+        <v>167</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F28" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G28" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" t="s">
-        <v>77</v>
+        <v>38</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D29" t="s">
-        <v>165</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
+        <v>168</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G29" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C30" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D30" t="s">
-        <v>166</v>
-      </c>
-      <c r="E30" t="s">
-        <v>185</v>
+        <v>169</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C31" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" t="s">
-        <v>185</v>
+        <v>170</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G31" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" t="s">
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" t="s">
-        <v>185</v>
+        <v>173</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F32" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" t="s">
-        <v>79</v>
+        <v>44</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C33" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E33" t="s">
-        <v>185</v>
+        <v>174</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G33" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
+        <v>45</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C34" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D34" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F34" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G34" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" t="s">
-        <v>80</v>
+        <v>46</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
-      </c>
-      <c r="E35" t="s">
-        <v>185</v>
+        <v>176</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" t="s">
-        <v>81</v>
+        <v>50</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
-      </c>
-      <c r="E36" t="s">
-        <v>81</v>
+        <v>180</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" t="s">
-        <v>82</v>
+        <v>9</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="C37" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="D37" t="s">
-        <v>173</v>
-      </c>
-      <c r="E37" t="s">
-        <v>82</v>
+        <v>139</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G37" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
+        <v>12</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="D38" t="s">
-        <v>174</v>
-      </c>
-      <c r="E38" t="s">
-        <v>185</v>
+        <v>142</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="F38" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>235</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E39" t="s">
-        <v>185</v>
+        <v>171</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G39" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" t="s">
-        <v>85</v>
+        <v>34</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
-      </c>
-      <c r="E40" t="s">
-        <v>185</v>
+        <v>164</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G40" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" t="s">
-        <v>86</v>
+        <v>42</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="C41" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>177</v>
-      </c>
-      <c r="E41" t="s">
-        <v>185</v>
+        <v>172</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="F41" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>47</v>
       </c>
-      <c r="B42" t="s">
-        <v>87</v>
+      <c r="B42" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" t="s">
-        <v>193</v>
+        <v>177</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G42" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C43" t="s">
@@ -2253,109 +2273,114 @@
       <c r="D43" t="s">
         <v>179</v>
       </c>
-      <c r="E43" t="s">
-        <v>88</v>
+      <c r="E43" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="F43" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>89</v>
       </c>
       <c r="C44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" t="s">
         <v>194</v>
       </c>
-      <c r="F44" t="s">
-        <v>196</v>
-      </c>
       <c r="G44" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
+        <v>48</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E45" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="F45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G45" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>90</v>
+        <v>21</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="D46" t="s">
-        <v>182</v>
-      </c>
-      <c r="E46" t="s">
+        <v>151</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F46" t="s">
         <v>194</v>
       </c>
-      <c r="F46" t="s">
-        <v>196</v>
-      </c>
       <c r="G46" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C47" t="s">
         <v>91</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>137</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E47" t="s">
-        <v>195</v>
-      </c>
       <c r="F47" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G47" t="s">
-        <v>244</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G47" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G47">
+      <sortCondition ref="E1:E47"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>